--- a/data/xlsx_edit/physrost04.xlsx
+++ b/data/xlsx_edit/physrost04.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Tuskegee U</t>
   </si>
   <si>
-    <t xml:space="preserve">Alaska-U of</t>
+    <t xml:space="preserve">Alaska-U of, Fairbanks</t>
   </si>
   <si>
     <t xml:space="preserve">AK</t>
@@ -2796,7 +2796,7 @@
   <dimension ref="A1:O769"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/xlsx_edit/physrost04.xlsx
+++ b/data/xlsx_edit/physrost04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="828">
   <si>
     <t xml:space="preserve">Institution</t>
   </si>
@@ -1292,6 +1292,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chadron State Coll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
   </si>
   <si>
     <t xml:space="preserve">Creighton U</t>
@@ -2795,8 +2798,8 @@
   </sheetPr>
   <dimension ref="A1:O769"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A355" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D382" activeCellId="0" sqref="D382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14436,7 +14439,7 @@
         <v>423</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>22</v>
@@ -14450,10 +14453,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>36</v>
@@ -14488,10 +14491,10 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>22</v>
@@ -14514,10 +14517,10 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>22</v>
@@ -14540,10 +14543,10 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>22</v>
@@ -14566,10 +14569,10 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>17</v>
@@ -14607,10 +14610,10 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>22</v>
@@ -14633,10 +14636,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>22</v>
@@ -14659,10 +14662,10 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>22</v>
@@ -14685,10 +14688,10 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>17</v>
@@ -14726,10 +14729,10 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>17</v>
@@ -14767,10 +14770,10 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>17</v>
@@ -14808,10 +14811,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>17</v>
@@ -14849,10 +14852,10 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>22</v>
@@ -14875,10 +14878,10 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>22</v>
@@ -14901,10 +14904,10 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>22</v>
@@ -14927,10 +14930,10 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>22</v>
@@ -14947,10 +14950,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>22</v>
@@ -14973,10 +14976,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>22</v>
@@ -14999,10 +15002,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>17</v>
@@ -15034,10 +15037,10 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>17</v>
@@ -15075,10 +15078,10 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>22</v>
@@ -15095,10 +15098,10 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>22</v>
@@ -15115,10 +15118,10 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>22</v>
@@ -15141,10 +15144,10 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>22</v>
@@ -15167,10 +15170,10 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>22</v>
@@ -15193,10 +15196,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>17</v>
@@ -15234,10 +15237,10 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>17</v>
@@ -15269,10 +15272,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>22</v>
@@ -15295,10 +15298,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>22</v>
@@ -15318,10 +15321,10 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>17</v>
@@ -15359,10 +15362,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>22</v>
@@ -15385,10 +15388,10 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>22</v>
@@ -15411,10 +15414,10 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>17</v>
@@ -15452,10 +15455,10 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>17</v>
@@ -15493,10 +15496,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>17</v>
@@ -15534,10 +15537,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>22</v>
@@ -15560,10 +15563,10 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>22</v>
@@ -15586,10 +15589,10 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>22</v>
@@ -15612,10 +15615,10 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>22</v>
@@ -15638,10 +15641,10 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>22</v>
@@ -15664,10 +15667,10 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>17</v>
@@ -15705,10 +15708,10 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>22</v>
@@ -15731,10 +15734,10 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>17</v>
@@ -15772,10 +15775,10 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>17</v>
@@ -15807,10 +15810,10 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>17</v>
@@ -15848,10 +15851,10 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>17</v>
@@ -15883,10 +15886,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>22</v>
@@ -15909,10 +15912,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>22</v>
@@ -15935,10 +15938,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>22</v>
@@ -15961,10 +15964,10 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>17</v>
@@ -15984,10 +15987,10 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>36</v>
@@ -16013,10 +16016,10 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>36</v>
@@ -16042,10 +16045,10 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>36</v>
@@ -16071,10 +16074,10 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>36</v>
@@ -16100,10 +16103,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>22</v>
@@ -16126,10 +16129,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>22</v>
@@ -16152,10 +16155,10 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>22</v>
@@ -16178,10 +16181,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>22</v>
@@ -16204,10 +16207,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>22</v>
@@ -16230,10 +16233,10 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>22</v>
@@ -16256,10 +16259,10 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>22</v>
@@ -16282,10 +16285,10 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>22</v>
@@ -16308,10 +16311,10 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>22</v>
@@ -16334,10 +16337,10 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>22</v>
@@ -16360,10 +16363,10 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>22</v>
@@ -16386,10 +16389,10 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>22</v>
@@ -16412,10 +16415,10 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>22</v>
@@ -16438,10 +16441,10 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>17</v>
@@ -16479,10 +16482,10 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>22</v>
@@ -16505,10 +16508,10 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>22</v>
@@ -16531,10 +16534,10 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>17</v>
@@ -16572,10 +16575,10 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>22</v>
@@ -16598,10 +16601,10 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>22</v>
@@ -16624,10 +16627,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>17</v>
@@ -16665,10 +16668,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>17</v>
@@ -16691,10 +16694,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>22</v>
@@ -16717,10 +16720,10 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>22</v>
@@ -16746,7 +16749,7 @@
         <v>389</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>22</v>
@@ -16763,10 +16766,10 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>22</v>
@@ -16789,10 +16792,10 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>22</v>
@@ -16815,10 +16818,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>22</v>
@@ -16841,10 +16844,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>22</v>
@@ -16867,10 +16870,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>22</v>
@@ -16893,10 +16896,10 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>22</v>
@@ -16919,10 +16922,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>22</v>
@@ -16945,10 +16948,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>22</v>
@@ -16971,10 +16974,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>22</v>
@@ -16997,10 +17000,10 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>22</v>
@@ -17023,10 +17026,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>22</v>
@@ -17049,10 +17052,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>22</v>
@@ -17075,10 +17078,10 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>17</v>
@@ -17116,10 +17119,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>36</v>
@@ -17154,10 +17157,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>17</v>
@@ -17195,10 +17198,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>22</v>
@@ -17221,10 +17224,10 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>17</v>
@@ -17262,10 +17265,10 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>17</v>
@@ -17303,10 +17306,10 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>22</v>
@@ -17329,10 +17332,10 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>22</v>
@@ -17355,10 +17358,10 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>22</v>
@@ -17381,10 +17384,10 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>22</v>
@@ -17407,10 +17410,10 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>22</v>
@@ -17433,10 +17436,10 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>22</v>
@@ -17459,10 +17462,10 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>22</v>
@@ -17485,10 +17488,10 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>36</v>
@@ -17523,10 +17526,10 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>22</v>
@@ -17549,10 +17552,10 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>17</v>
@@ -17590,10 +17593,10 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>17</v>
@@ -17610,10 +17613,10 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>22</v>
@@ -17636,10 +17639,10 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>22</v>
@@ -17662,10 +17665,10 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>22</v>
@@ -17688,10 +17691,10 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>22</v>
@@ -17714,10 +17717,10 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>36</v>
@@ -17752,10 +17755,10 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>22</v>
@@ -17778,10 +17781,10 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>17</v>
@@ -17819,10 +17822,10 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>22</v>
@@ -17845,10 +17848,10 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>17</v>
@@ -17886,10 +17889,10 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>36</v>
@@ -17924,10 +17927,10 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>22</v>
@@ -17950,10 +17953,10 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>22</v>
@@ -17976,10 +17979,10 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>22</v>
@@ -18002,10 +18005,10 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>17</v>
@@ -18043,10 +18046,10 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>22</v>
@@ -18054,10 +18057,10 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>17</v>
@@ -18095,10 +18098,10 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>17</v>
@@ -18136,10 +18139,10 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>17</v>
@@ -18162,10 +18165,10 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>36</v>
@@ -18200,10 +18203,10 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>22</v>
@@ -18226,10 +18229,10 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>22</v>
@@ -18252,10 +18255,10 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>22</v>
@@ -18278,10 +18281,10 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>22</v>
@@ -18304,10 +18307,10 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>36</v>
@@ -18342,10 +18345,10 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>17</v>
@@ -18383,10 +18386,10 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>22</v>
@@ -18409,10 +18412,10 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>17</v>
@@ -18450,10 +18453,10 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>36</v>
@@ -18488,10 +18491,10 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>22</v>
@@ -18514,10 +18517,10 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>22</v>
@@ -18540,10 +18543,10 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>22</v>
@@ -18566,10 +18569,10 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>22</v>
@@ -18592,10 +18595,10 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>36</v>
@@ -18630,10 +18633,10 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>17</v>
@@ -18671,10 +18674,10 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>22</v>
@@ -18697,10 +18700,10 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>22</v>
@@ -18723,10 +18726,10 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>36</v>
@@ -18761,10 +18764,10 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>22</v>
@@ -18787,10 +18790,10 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>22</v>
@@ -18813,10 +18816,10 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>22</v>
@@ -18839,10 +18842,10 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>22</v>
@@ -18865,10 +18868,10 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>17</v>
@@ -18900,10 +18903,10 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>17</v>
@@ -18941,10 +18944,10 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>22</v>
@@ -18967,10 +18970,10 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>22</v>
@@ -18993,10 +18996,10 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>17</v>
@@ -19034,10 +19037,10 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>22</v>
@@ -19060,10 +19063,10 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>22</v>
@@ -19086,10 +19089,10 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>36</v>
@@ -19124,7 +19127,7 @@
         <v>299</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>22</v>
@@ -19147,10 +19150,10 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>22</v>
@@ -19173,10 +19176,10 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>22</v>
@@ -19199,10 +19202,10 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>36</v>
@@ -19237,10 +19240,10 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>22</v>
@@ -19263,10 +19266,10 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>22</v>
@@ -19289,10 +19292,10 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>22</v>
@@ -19315,10 +19318,10 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>22</v>
@@ -19341,10 +19344,10 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>17</v>
@@ -19382,10 +19385,10 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>17</v>
@@ -19423,10 +19426,10 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>22</v>
@@ -19449,10 +19452,10 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>22</v>
@@ -19475,10 +19478,10 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>22</v>
@@ -19501,10 +19504,10 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>22</v>
@@ -19527,10 +19530,10 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>22</v>
@@ -19553,10 +19556,10 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>22</v>
@@ -19576,10 +19579,10 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B556" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>22</v>
@@ -19602,10 +19605,10 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>22</v>
@@ -19628,10 +19631,10 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>17</v>
@@ -19669,10 +19672,10 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>17</v>
@@ -19710,10 +19713,10 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>22</v>
@@ -19736,10 +19739,10 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>17</v>
@@ -19777,10 +19780,10 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>22</v>
@@ -19803,10 +19806,10 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>22</v>
@@ -19829,10 +19832,10 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>22</v>
@@ -19855,10 +19858,10 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>22</v>
@@ -19881,10 +19884,10 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>22</v>
@@ -19907,10 +19910,10 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B567" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>22</v>
@@ -19933,10 +19936,10 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>22</v>
@@ -19959,10 +19962,10 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>17</v>
@@ -20000,10 +20003,10 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>22</v>
@@ -20026,10 +20029,10 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>22</v>
@@ -20052,10 +20055,10 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>17</v>
@@ -20093,10 +20096,10 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>22</v>
@@ -20119,10 +20122,10 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>22</v>
@@ -20145,10 +20148,10 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>22</v>
@@ -20171,10 +20174,10 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>17</v>
@@ -20197,10 +20200,10 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>22</v>
@@ -20223,10 +20226,10 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>22</v>
@@ -20249,10 +20252,10 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>22</v>
@@ -20275,10 +20278,10 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>22</v>
@@ -20301,10 +20304,10 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>22</v>
@@ -20327,10 +20330,10 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>22</v>
@@ -20353,10 +20356,10 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>22</v>
@@ -20379,10 +20382,10 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>22</v>
@@ -20405,10 +20408,10 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>22</v>
@@ -20431,10 +20434,10 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>36</v>
@@ -20469,10 +20472,10 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>22</v>
@@ -20495,10 +20498,10 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>22</v>
@@ -20521,10 +20524,10 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>22</v>
@@ -20547,10 +20550,10 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>22</v>
@@ -20573,10 +20576,10 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>17</v>
@@ -20617,7 +20620,7 @@
         <v>405</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>22</v>
@@ -20640,10 +20643,10 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>22</v>
@@ -20666,10 +20669,10 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>22</v>
@@ -20692,10 +20695,10 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>22</v>
@@ -20718,10 +20721,10 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>22</v>
@@ -20744,10 +20747,10 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>22</v>
@@ -20770,10 +20773,10 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>22</v>
@@ -20796,10 +20799,10 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>17</v>
@@ -20837,10 +20840,10 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>22</v>
@@ -20863,10 +20866,10 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>17</v>
@@ -20904,10 +20907,10 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>17</v>
@@ -20945,10 +20948,10 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>22</v>
@@ -20971,10 +20974,10 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>22</v>
@@ -20997,10 +21000,10 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>22</v>
@@ -21023,10 +21026,10 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>22</v>
@@ -21049,10 +21052,10 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>22</v>
@@ -21075,10 +21078,10 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>22</v>
@@ -21101,10 +21104,10 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>22</v>
@@ -21127,10 +21130,10 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>17</v>
@@ -21168,10 +21171,10 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>22</v>
@@ -21194,10 +21197,10 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>22</v>
@@ -21220,10 +21223,10 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>22</v>
@@ -21246,10 +21249,10 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>22</v>
@@ -21272,10 +21275,10 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>22</v>
@@ -21301,7 +21304,7 @@
         <v>418</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>22</v>
@@ -21324,10 +21327,10 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>22</v>
@@ -21347,10 +21350,10 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>22</v>
@@ -21373,10 +21376,10 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B619" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>36</v>
@@ -21384,10 +21387,10 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>36</v>
@@ -21422,10 +21425,10 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>17</v>
@@ -21463,10 +21466,10 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B622" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>22</v>
@@ -21489,10 +21492,10 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>22</v>
@@ -21515,10 +21518,10 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>17</v>
@@ -21556,10 +21559,10 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>22</v>
@@ -21582,10 +21585,10 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B626" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>22</v>
@@ -21608,10 +21611,10 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>22</v>
@@ -21634,10 +21637,10 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>22</v>
@@ -21660,10 +21663,10 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>17</v>
@@ -21701,10 +21704,10 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>22</v>
@@ -21727,10 +21730,10 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>22</v>
@@ -21747,10 +21750,10 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>22</v>
@@ -21773,10 +21776,10 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>22</v>
@@ -21799,10 +21802,10 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>22</v>
@@ -21825,10 +21828,10 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>17</v>
@@ -21866,10 +21869,10 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>22</v>
@@ -21895,7 +21898,7 @@
         <v>185</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>22</v>
@@ -21918,10 +21921,10 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B638" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>22</v>
@@ -21944,10 +21947,10 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>36</v>
@@ -21982,10 +21985,10 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>22</v>
@@ -22008,10 +22011,10 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>22</v>
@@ -22034,10 +22037,10 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B642" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>22</v>
@@ -22060,10 +22063,10 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>22</v>
@@ -22086,10 +22089,10 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>22</v>
@@ -22112,10 +22115,10 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>22</v>
@@ -22138,10 +22141,10 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>36</v>
@@ -22176,10 +22179,10 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>22</v>
@@ -22202,10 +22205,10 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>22</v>
@@ -22222,10 +22225,10 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>36</v>
@@ -22254,10 +22257,10 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>22</v>
@@ -22280,10 +22283,10 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>22</v>
@@ -22306,10 +22309,10 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>22</v>
@@ -22332,10 +22335,10 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>22</v>
@@ -22358,10 +22361,10 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>22</v>
@@ -22384,10 +22387,10 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>22</v>
@@ -22410,10 +22413,10 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>22</v>
@@ -22436,10 +22439,10 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>17</v>
@@ -22477,10 +22480,10 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>17</v>
@@ -22503,10 +22506,10 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>22</v>
@@ -22529,10 +22532,10 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>22</v>
@@ -22555,10 +22558,10 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>17</v>
@@ -22596,10 +22599,10 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>22</v>
@@ -22622,10 +22625,10 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B663" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>22</v>
@@ -22648,10 +22651,10 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>22</v>
@@ -22674,10 +22677,10 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>17</v>
@@ -22715,10 +22718,10 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>22</v>
@@ -22741,10 +22744,10 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>22</v>
@@ -22767,10 +22770,10 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>17</v>
@@ -22808,10 +22811,10 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>22</v>
@@ -22834,10 +22837,10 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>22</v>
@@ -22860,10 +22863,10 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>22</v>
@@ -22886,10 +22889,10 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>22</v>
@@ -22912,10 +22915,10 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>17</v>
@@ -22953,10 +22956,10 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>22</v>
@@ -22979,10 +22982,10 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>17</v>
@@ -23020,10 +23023,10 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>22</v>
@@ -23046,10 +23049,10 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>22</v>
@@ -23072,10 +23075,10 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>17</v>
@@ -23113,10 +23116,10 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>22</v>
@@ -23139,10 +23142,10 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>22</v>
@@ -23165,10 +23168,10 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>36</v>
@@ -23203,10 +23206,10 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>22</v>
@@ -23229,10 +23232,10 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>17</v>
@@ -23270,10 +23273,10 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>36</v>
@@ -23308,10 +23311,10 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>22</v>
@@ -23334,10 +23337,10 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>17</v>
@@ -23375,10 +23378,10 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>22</v>
@@ -23401,10 +23404,10 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>36</v>
@@ -23439,10 +23442,10 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>17</v>
@@ -23480,10 +23483,10 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>17</v>
@@ -23521,10 +23524,10 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>17</v>
@@ -23562,10 +23565,10 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>36</v>
@@ -23600,10 +23603,10 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>17</v>
@@ -23641,10 +23644,10 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>36</v>
@@ -23676,10 +23679,10 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>22</v>
@@ -23702,10 +23705,10 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>22</v>
@@ -23728,10 +23731,10 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>22</v>
@@ -23754,10 +23757,10 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>22</v>
@@ -23780,10 +23783,10 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>17</v>
@@ -23821,10 +23824,10 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B700" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>17</v>
@@ -23862,10 +23865,10 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>17</v>
@@ -23903,10 +23906,10 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>22</v>
@@ -23929,10 +23932,10 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>22</v>
@@ -23958,7 +23961,7 @@
         <v>418</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>22</v>
@@ -23981,10 +23984,10 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>22</v>
@@ -24007,10 +24010,10 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B706" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>22</v>
@@ -24033,10 +24036,10 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>22</v>
@@ -24059,10 +24062,10 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>22</v>
@@ -24085,10 +24088,10 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>36</v>
@@ -24123,10 +24126,10 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>22</v>
@@ -24149,10 +24152,10 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B711" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>36</v>
@@ -24187,10 +24190,10 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>22</v>
@@ -24213,10 +24216,10 @@
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>36</v>
@@ -24251,10 +24254,10 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>22</v>
@@ -24277,10 +24280,10 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>17</v>
@@ -24318,10 +24321,10 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>22</v>
@@ -24344,10 +24347,10 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>22</v>
@@ -24370,10 +24373,10 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>22</v>
@@ -24396,10 +24399,10 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>22</v>
@@ -24422,10 +24425,10 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>22</v>
@@ -24448,10 +24451,10 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>22</v>
@@ -24474,10 +24477,10 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>22</v>
@@ -24500,10 +24503,10 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>17</v>
@@ -24541,10 +24544,10 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>22</v>
@@ -24567,10 +24570,10 @@
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>22</v>
@@ -24593,10 +24596,10 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>22</v>
@@ -24619,10 +24622,10 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>22</v>
@@ -24645,10 +24648,10 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>22</v>
@@ -24671,10 +24674,10 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>36</v>
@@ -24709,10 +24712,10 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>22</v>
@@ -24735,10 +24738,10 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>36</v>
@@ -24773,10 +24776,10 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>17</v>
@@ -24814,10 +24817,10 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>17</v>
@@ -24855,10 +24858,10 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>22</v>
@@ -24881,10 +24884,10 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>17</v>
@@ -24922,10 +24925,10 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>22</v>
@@ -24948,10 +24951,10 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B737" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>22</v>
@@ -24974,10 +24977,10 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>22</v>
@@ -25000,10 +25003,10 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>22</v>
@@ -25026,10 +25029,10 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>22</v>
@@ -25052,10 +25055,10 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>22</v>
@@ -25078,10 +25081,10 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>22</v>
@@ -25104,10 +25107,10 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>22</v>
@@ -25130,10 +25133,10 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>17</v>
@@ -25171,10 +25174,10 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>17</v>
@@ -25212,10 +25215,10 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>22</v>
@@ -25238,10 +25241,10 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>22</v>
@@ -25264,10 +25267,10 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>22</v>
@@ -25290,10 +25293,10 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>22</v>
@@ -25316,10 +25319,10 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B750" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>22</v>
@@ -25342,10 +25345,10 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>17</v>
@@ -25383,10 +25386,10 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>22</v>
@@ -25409,10 +25412,10 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>22</v>
@@ -25435,10 +25438,10 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>22</v>
@@ -25461,10 +25464,10 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B755" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>22</v>
@@ -25487,10 +25490,10 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>22</v>
@@ -25513,10 +25516,10 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>22</v>
@@ -25539,10 +25542,10 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>22</v>
@@ -25565,10 +25568,10 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>22</v>
@@ -25591,10 +25594,10 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>22</v>
@@ -25617,10 +25620,10 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>22</v>
@@ -25643,10 +25646,10 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>17</v>
@@ -25684,10 +25687,10 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>17</v>
@@ -25725,10 +25728,10 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>36</v>
@@ -25763,10 +25766,10 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>22</v>
@@ -25789,10 +25792,10 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>22</v>
@@ -25815,10 +25818,10 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>22</v>
@@ -25841,10 +25844,10 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>22</v>
@@ -25867,10 +25870,10 @@
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>22</v>
